--- a/experiment/quadratic/ex9_2_4/compare/C-Estacionario/ex9_2_4_C-Estacionario.xlsx
+++ b/experiment/quadratic/ex9_2_4/compare/C-Estacionario/ex9_2_4_C-Estacionario.xlsx
@@ -485,13 +485,13 @@
         <v>11.482312407444745</v>
       </c>
       <c r="E2">
-        <v>0.00346059</v>
+        <v>0.002981043</v>
       </c>
       <c r="F2">
-        <v>0.00929088</v>
+        <v>0.008141255</v>
       </c>
       <c r="G2">
-        <v>0.0042336878625954194</v>
+        <v>0.0038767353470178156</v>
       </c>
       <c r="H2">
         <v>2032</v>
@@ -523,13 +523,13 @@
         <v>11.482312064304207</v>
       </c>
       <c r="E3">
-        <v>0.00307575</v>
+        <v>0.002786517</v>
       </c>
       <c r="F3">
-        <v>0.00737307</v>
+        <v>0.030647614</v>
       </c>
       <c r="G3">
-        <v>0.003558125606276747</v>
+        <v>0.003738380746067416</v>
       </c>
       <c r="H3">
         <v>3527</v>
